--- a/files/xlsx/build/оборудование_не_соответствующее_нормативам_по_простоям.xlsx
+++ b/files/xlsx/build/оборудование_не_соответствующее_нормативам_по_простоям.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>Оборудование, не соответствующее нормативам по простоям (сортировка - от "худшего"). Нормативы согласно И.А.438</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>7.0</t>
+  </si>
+  <si>
+    <t>ноябрь 2020</t>
   </si>
   <si>
     <t>средний</t>
@@ -299,6 +302,9 @@
 неисправность электроаппаратуры</t>
   </si>
   <si>
+    <t>декабрь 2020</t>
+  </si>
+  <si>
     <t>1Б240П-6К</t>
   </si>
   <si>
@@ -416,6 +422,12 @@
   <si>
     <t>неисправность коробки скоростей, подач
 неисправность электроаппаратуры</t>
+  </si>
+  <si>
+    <t>июль 2020</t>
+  </si>
+  <si>
+    <t>График ремонта участка №3-АТЦ №19 от 21.05.2020г</t>
   </si>
   <si>
     <t>ВШ-314М</t>
@@ -884,6 +896,9 @@
     <t>31.07.2020</t>
   </si>
   <si>
+    <t>Предложение от производства</t>
+  </si>
+  <si>
     <t>1Е365БП</t>
   </si>
   <si>
@@ -919,6 +934,9 @@
     <t>HXF 288</t>
   </si>
   <si>
+    <t>сентябрь 2020</t>
+  </si>
+  <si>
     <t>АККЕ2330</t>
   </si>
   <si>
@@ -1023,6 +1041,9 @@
     <t>13.8</t>
   </si>
   <si>
+    <t>По результатам анализа аварийных выходов из строя с предыдущего периода (2019 год)</t>
+  </si>
+  <si>
     <t>SIW-4/1ВСАС</t>
   </si>
   <si>
@@ -1088,6 +1109,12 @@
     <t>неисправность гидравлики
 неисправность логических элементов
 неисправность асинхронного двигателя</t>
+  </si>
+  <si>
+    <t>октябрь 2020</t>
+  </si>
+  <si>
+    <t>текущий</t>
   </si>
   <si>
     <t>2.03
@@ -2338,9 +2365,11 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="11"/>
+      <c r="M28" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="N28" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2402,7 +2431,7 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="1"/>
@@ -2437,19 +2466,19 @@
         <v>15.129999999999999</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="1"/>
@@ -2480,7 +2509,7 @@
         <v>7</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="1"/>
@@ -2515,19 +2544,19 @@
         <v>14.25</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="1"/>
@@ -2558,15 +2587,17 @@
         <v>49.92</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="11"/>
+      <c r="M34" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="N34" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2577,7 +2608,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C35" s="7" t="n">
         <v>440005</v>
@@ -2595,7 +2626,7 @@
         <v>12.32</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="1"/>
@@ -2628,10 +2659,10 @@
         <v>10.66</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>39</v>
@@ -2671,10 +2702,10 @@
         <v>19.21</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>39</v>
@@ -2710,10 +2741,10 @@
         <v>8.17</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>20</v>
@@ -2753,7 +2784,7 @@
         <v>20.4</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>30</v>
@@ -2762,10 +2793,10 @@
         <v>20</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M39" s="11"/>
       <c r="N39" s="1"/>
@@ -2796,10 +2827,10 @@
         <v>13.41</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>39</v>
@@ -2835,10 +2866,10 @@
         <v>3.66</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>39</v>
@@ -2856,7 +2887,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="7" t="n">
         <v>370011</v>
@@ -2874,7 +2905,7 @@
         <v>10.35</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="1"/>
@@ -2909,19 +2940,19 @@
         <v>1.9900000000000002</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M43" s="11"/>
       <c r="N43" s="1"/>
@@ -2952,7 +2983,7 @@
         <v>0.66</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="1"/>
@@ -2987,7 +3018,7 @@
         <v>11</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="1"/>
@@ -3004,7 +3035,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="7" t="n">
@@ -3020,7 +3051,7 @@
         <v>6.33</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="1"/>
@@ -3055,7 +3086,7 @@
         <v>1.67</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="1"/>
@@ -3090,7 +3121,7 @@
         <v>9.82</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="1"/>
@@ -3125,7 +3156,7 @@
         <v>12.66</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I49" s="11"/>
       <c r="J49" s="1"/>
@@ -3160,10 +3191,10 @@
         <v>5.67</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>39</v>
@@ -3199,7 +3230,7 @@
         <v>11.48</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="1"/>
@@ -3216,7 +3247,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C52" s="7" t="n">
         <v>650008</v>
@@ -3234,7 +3265,7 @@
         <v>12.67</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="1"/>
@@ -3251,7 +3282,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="7" t="n">
@@ -3267,7 +3298,7 @@
         <v>3.33</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>30</v>
@@ -3276,10 +3307,10 @@
         <v>20</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M53" s="11"/>
       <c r="N53" s="1"/>
@@ -3310,7 +3341,7 @@
         <v>14.17</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="1"/>
@@ -3345,7 +3376,7 @@
         <v>12.33</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="1"/>
@@ -3380,19 +3411,19 @@
         <v>15.5</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M56" s="11"/>
       <c r="N56" s="1"/>
@@ -3423,34 +3454,38 @@
         <v>11.02</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="M57" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="N57" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
+      <c r="Q57" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="7" t="n">
         <v>55</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="7" t="n">
@@ -3466,7 +3501,7 @@
         <v>2.99</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="1"/>
@@ -3499,7 +3534,7 @@
         <v>7.74</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="1"/>
@@ -3653,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>740055</v>
@@ -3671,7 +3706,7 @@
         <v>5.3500000000000005</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="1"/>
@@ -3688,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>740012</v>
@@ -3706,19 +3741,19 @@
         <v>23.340000000000003</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="1"/>
@@ -3731,7 +3766,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>730026</v>
@@ -3749,10 +3784,10 @@
         <v>12.5</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>39</v>
@@ -3770,7 +3805,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>140039</v>
@@ -3788,7 +3823,7 @@
         <v>7.67</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="1"/>
@@ -3805,7 +3840,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>730010</v>
@@ -3823,7 +3858,7 @@
         <v>10.5</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="1"/>
@@ -3840,7 +3875,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>730047</v>
@@ -3858,10 +3893,10 @@
         <v>29</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>39</v>
@@ -3879,7 +3914,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>730059</v>
@@ -3897,19 +3932,19 @@
         <v>2.33</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="1"/>
@@ -3922,7 +3957,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>730011</v>
@@ -3940,10 +3975,10 @@
         <v>11.5</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>39</v>
@@ -3961,7 +3996,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>730035</v>
@@ -3979,7 +4014,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="1"/>
@@ -3996,7 +4031,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="7" t="n">
@@ -4012,7 +4047,7 @@
         <v>4.49</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="1"/>
@@ -4029,7 +4064,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>140047</v>
@@ -4047,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="1"/>
@@ -4064,7 +4099,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>740056</v>
@@ -4082,19 +4117,19 @@
         <v>3.66</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="1"/>
@@ -4107,7 +4142,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>730060</v>
@@ -4142,7 +4177,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>730040</v>
@@ -4160,10 +4195,10 @@
         <v>8.83</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>39</v>
@@ -4181,7 +4216,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C18" s="7" t="n">
         <v>730016</v>
@@ -4199,7 +4234,7 @@
         <v>65.34</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>38</v>
@@ -4220,7 +4255,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C19" s="7" t="n">
         <v>740024</v>
@@ -4238,7 +4273,7 @@
         <v>52.5</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="1"/>
@@ -4255,7 +4290,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>140030</v>
@@ -4273,10 +4308,10 @@
         <v>9.32</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>39</v>
@@ -4294,7 +4329,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C21" s="7" t="n">
         <v>140044</v>
@@ -4315,16 +4350,16 @@
         <v>66</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="1"/>
@@ -4337,7 +4372,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="7" t="n">
@@ -4370,7 +4405,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>730025</v>
@@ -4388,10 +4423,10 @@
         <v>35.67</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>39</v>
@@ -4409,7 +4444,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>140089</v>
@@ -4427,10 +4462,10 @@
         <v>25</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>39</v>
@@ -4448,7 +4483,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="7" t="n">
@@ -4464,7 +4499,7 @@
         <v>16.84</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="1"/>
@@ -4481,7 +4516,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="7" t="n">
@@ -4514,7 +4549,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C27" s="7" t="n">
         <v>740051</v>
@@ -4549,7 +4584,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C28" s="7" t="n">
         <v>740049</v>
@@ -4584,7 +4619,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="7" t="n">
@@ -4617,7 +4652,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C30" s="7" t="n">
         <v>750041</v>
@@ -4652,7 +4687,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C31" s="7" t="n">
         <v>140016</v>
@@ -4670,19 +4705,19 @@
         <v>3.17</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="1"/>
@@ -4695,7 +4730,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="7" t="n">
@@ -4711,7 +4746,7 @@
         <v>4.51</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="1"/>
@@ -4728,7 +4763,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="7" t="n">
@@ -4744,7 +4779,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="1"/>
@@ -4761,7 +4796,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C34" s="7" t="n">
         <v>140026</v>
@@ -4779,7 +4814,7 @@
         <v>2.3400000000000003</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="1"/>
@@ -4796,7 +4831,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C35" s="7" t="n">
         <v>820006</v>
@@ -4814,7 +4849,7 @@
         <v>3.66</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="1"/>
@@ -4831,7 +4866,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C36" s="7" t="n">
         <v>140015</v>
@@ -4849,19 +4884,19 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="1"/>
@@ -4874,7 +4909,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C37" s="7" t="n">
         <v>730070</v>
@@ -4892,10 +4927,10 @@
         <v>11.16</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>20</v>
@@ -4917,7 +4952,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="7" t="n">
@@ -4933,7 +4968,7 @@
         <v>3.15</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="1"/>
@@ -4950,7 +4985,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="7" t="n">
@@ -4966,7 +5001,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="1"/>
@@ -4983,7 +5018,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="7" t="n">
@@ -4999,7 +5034,7 @@
         <v>5.18</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="1"/>
@@ -5016,7 +5051,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="7" t="n">
@@ -5032,7 +5067,7 @@
         <v>2.67</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="1"/>
@@ -5049,7 +5084,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="7" t="n">
@@ -5065,7 +5100,7 @@
         <v>2.17</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="1"/>
@@ -5082,7 +5117,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="7" t="n">
@@ -5098,7 +5133,7 @@
         <v>1.67</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="1"/>
@@ -5115,7 +5150,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="7" t="n">
@@ -5131,7 +5166,7 @@
         <v>0.66</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="1"/>
@@ -5148,7 +5183,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C45" s="7" t="n">
         <v>730041</v>
@@ -5166,7 +5201,7 @@
         <v>11.34</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>38</v>
@@ -5175,10 +5210,10 @@
         <v>20</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M45" s="11"/>
       <c r="N45" s="1"/>
@@ -5191,7 +5226,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C46" s="7" t="n">
         <v>140054</v>
@@ -5209,7 +5244,7 @@
         <v>4</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>38</v>
@@ -5218,10 +5253,10 @@
         <v>20</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M46" s="11"/>
       <c r="N46" s="1"/>
@@ -5234,7 +5269,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C47" s="7" t="n">
         <v>730034</v>
@@ -5252,7 +5287,7 @@
         <v>2.66</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="1"/>
@@ -5269,7 +5304,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C48" s="7" t="n">
         <v>740039</v>
@@ -5287,7 +5322,7 @@
         <v>8.33</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>30</v>
@@ -5296,10 +5331,10 @@
         <v>20</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M48" s="11"/>
       <c r="N48" s="1"/>
@@ -5312,7 +5347,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C49" s="7" t="n">
         <v>740042</v>
@@ -5330,10 +5365,10 @@
         <v>10</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>39</v>
@@ -5488,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>60002</v>
@@ -5506,19 +5541,19 @@
         <v>7.17</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="1"/>
@@ -5531,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>90003</v>
@@ -5549,7 +5584,7 @@
         <v>56.239999999999995</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>52</v>
@@ -5558,10 +5593,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="1"/>
@@ -5574,7 +5609,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>120004</v>
@@ -5592,19 +5627,19 @@
         <v>4.25</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="1"/>
@@ -5617,7 +5652,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>10002</v>
@@ -5635,19 +5670,19 @@
         <v>27.43</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="1"/>
@@ -5660,7 +5695,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>20001</v>
@@ -5678,7 +5713,7 @@
         <v>3.33</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="1"/>
@@ -5695,7 +5730,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>80005</v>
@@ -5713,19 +5748,19 @@
         <v>18.42</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="1"/>
@@ -5738,7 +5773,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>50002</v>
@@ -5756,10 +5791,10 @@
         <v>2.74</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>20</v>
@@ -5781,7 +5816,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>20002</v>
@@ -5799,19 +5834,19 @@
         <v>6.42</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="1"/>
@@ -5824,7 +5859,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>60004</v>
@@ -5842,19 +5877,19 @@
         <v>63.91</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="1"/>
@@ -5867,7 +5902,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C13" s="7" t="n">
         <v>100004</v>
@@ -5885,19 +5920,19 @@
         <v>3.91</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="1"/>
@@ -5910,7 +5945,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>90001</v>
@@ -5928,19 +5963,19 @@
         <v>23</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="1"/>
@@ -5953,7 +5988,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>290011</v>
@@ -5971,10 +6006,10 @@
         <v>35.25</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>39</v>
@@ -5992,7 +6027,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>60001</v>
@@ -6010,19 +6045,19 @@
         <v>24.759999999999998</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="1"/>
@@ -6035,7 +6070,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>110003</v>
@@ -6053,19 +6088,19 @@
         <v>12.25</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="1"/>
@@ -6078,7 +6113,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C18" s="7" t="n">
         <v>290021</v>
@@ -6096,10 +6131,10 @@
         <v>22.259999999999998</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>39</v>
@@ -6117,7 +6152,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C19" s="7" t="n">
         <v>40004</v>
@@ -6135,19 +6170,19 @@
         <v>1.42</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="1"/>
@@ -6160,7 +6195,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>50001</v>
@@ -6181,16 +6216,16 @@
         <v>27</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="1"/>
@@ -6203,7 +6238,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C21" s="7" t="n">
         <v>100003</v>
@@ -6221,19 +6256,19 @@
         <v>2.41</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="1"/>
@@ -6246,7 +6281,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C22" s="7" t="n">
         <v>290015</v>
@@ -6264,30 +6299,34 @@
         <v>32.589999999999996</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="11"/>
+      <c r="M22" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="N22" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="8" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="7" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>280004</v>
@@ -6308,16 +6347,16 @@
         <v>46</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="1"/>
@@ -6330,7 +6369,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>80003</v>
@@ -6348,19 +6387,19 @@
         <v>3.33</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="1"/>
@@ -6373,7 +6412,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>260029</v>
@@ -6391,15 +6430,17 @@
         <v>30.75</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="11"/>
+      <c r="M25" s="10" t="s">
+        <v>238</v>
+      </c>
       <c r="N25" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -6410,7 +6451,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>150006</v>
@@ -6445,7 +6486,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C27" s="7" t="n">
         <v>270002</v>
@@ -6466,16 +6507,16 @@
         <v>63</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="1"/>
@@ -6488,7 +6529,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C28" s="7" t="n">
         <v>170004</v>
@@ -6506,19 +6547,19 @@
         <v>7</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="1"/>
@@ -6531,7 +6572,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C29" s="7" t="n">
         <v>140001</v>
@@ -6549,19 +6590,19 @@
         <v>1.58</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="1"/>
@@ -6574,7 +6615,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C30" s="7" t="n">
         <v>30002</v>
@@ -6592,19 +6633,19 @@
         <v>2.1</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="1"/>
@@ -6617,7 +6658,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C31" s="7" t="n">
         <v>280003</v>
@@ -6635,7 +6676,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>52</v>
@@ -6644,10 +6685,10 @@
         <v>39</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="1"/>
@@ -6797,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>30101</v>
@@ -6815,7 +6856,7 @@
         <v>6.33</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>30</v>
@@ -6824,10 +6865,10 @@
         <v>20</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="1"/>
@@ -6840,7 +6881,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>50701</v>
@@ -6858,7 +6899,7 @@
         <v>3.59</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="1"/>
@@ -6893,7 +6934,7 @@
         <v>8.5</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="1"/>
@@ -6910,7 +6951,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="7" t="n">
@@ -6926,7 +6967,7 @@
         <v>2.16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="1"/>
@@ -6943,7 +6984,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>530001</v>
@@ -6961,19 +7002,19 @@
         <v>26.5</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="1"/>
@@ -6986,7 +7027,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>520001</v>
@@ -7004,34 +7045,38 @@
         <v>59</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="M9" s="11"/>
+        <v>258</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="N9" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="8" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>530802</v>
@@ -7049,19 +7094,19 @@
         <v>2.67</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="1"/>
@@ -7074,7 +7119,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="7" t="n">
@@ -7090,7 +7135,7 @@
         <v>3.25</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="1"/>
@@ -7107,7 +7152,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>470066</v>
@@ -7125,7 +7170,7 @@
         <v>3.33</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="1"/>
@@ -7160,7 +7205,7 @@
         <v>4.34</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="1"/>
@@ -7177,7 +7222,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>530805</v>
@@ -7195,7 +7240,7 @@
         <v>2.67</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>30</v>
@@ -7204,10 +7249,10 @@
         <v>20</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="1"/>
@@ -7238,7 +7283,7 @@
         <v>11.75</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="1"/>
@@ -7255,7 +7300,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>890102</v>
@@ -7273,7 +7318,7 @@
         <v>17.33</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="1"/>
@@ -7290,7 +7335,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>440006</v>
@@ -7308,7 +7353,7 @@
         <v>14.58</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>30</v>
@@ -7317,10 +7362,10 @@
         <v>20</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="1"/>
@@ -7333,7 +7378,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C18" s="7" t="n">
         <v>100606</v>
@@ -7351,7 +7396,7 @@
         <v>4.17</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>30</v>
@@ -7360,10 +7405,10 @@
         <v>20</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="1"/>
@@ -7376,7 +7421,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C19" s="7" t="n">
         <v>891603</v>
@@ -7397,16 +7442,16 @@
         <v>70</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="1"/>
@@ -7419,7 +7464,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>870102</v>
@@ -7437,19 +7482,23 @@
         <v>45.59</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="1"/>
+      <c r="M20" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="O20" s="8" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="1"/>
     </row>
@@ -7458,7 +7507,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C21" s="7" t="n">
         <v>891604</v>
@@ -7476,7 +7525,7 @@
         <v>18.5</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>38</v>
@@ -7485,10 +7534,10 @@
         <v>20</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M21" s="11"/>
       <c r="N21" s="1"/>
@@ -7501,7 +7550,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C22" s="7" t="n">
         <v>460033</v>
@@ -7519,7 +7568,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>38</v>
@@ -7528,10 +7577,10 @@
         <v>20</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="1"/>
@@ -7544,7 +7593,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>860701</v>
@@ -7562,7 +7611,7 @@
         <v>34.17</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="1"/>
@@ -7579,7 +7628,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>890104</v>
@@ -7597,7 +7646,7 @@
         <v>12.33</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="1"/>
@@ -7614,7 +7663,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>400503</v>
@@ -7632,7 +7681,7 @@
         <v>5.67</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="1"/>
@@ -7649,7 +7698,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>390003</v>
@@ -7667,7 +7716,7 @@
         <v>3.33</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="1"/>
@@ -7684,7 +7733,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C27" s="7" t="n">
         <v>110201</v>
@@ -7702,7 +7751,7 @@
         <v>1.67</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="1"/>
@@ -7719,7 +7768,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C28" s="7" t="n">
         <v>110203</v>
@@ -7737,7 +7786,7 @@
         <v>1.67</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="1"/>
@@ -7754,7 +7803,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C29" s="7" t="n">
         <v>400902</v>
@@ -7772,7 +7821,7 @@
         <v>2.5</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="1"/>
@@ -7789,7 +7838,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C30" s="7" t="n">
         <v>400502</v>
@@ -7807,7 +7856,7 @@
         <v>1.67</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="1"/>
@@ -7824,7 +7873,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C31" s="7" t="n">
         <v>690001</v>
@@ -7842,36 +7891,42 @@
         <v>7.74</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="O31" s="8" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q31" s="1"/>
+        <v>304</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="7" t="n">
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C32" s="7" t="n">
         <v>531004</v>
@@ -7889,7 +7944,7 @@
         <v>1.58</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="1"/>
@@ -7906,7 +7961,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C33" s="7" t="n">
         <v>920301</v>
@@ -7924,7 +7979,7 @@
         <v>10.67</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="1"/>
@@ -7941,7 +7996,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C34" s="7" t="n">
         <v>531002</v>
@@ -7959,7 +8014,7 @@
         <v>1.42</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="1"/>
@@ -7976,7 +8031,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C35" s="7" t="n">
         <v>530804</v>
@@ -7994,7 +8049,7 @@
         <v>2.5</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="1"/>
@@ -8011,7 +8066,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C36" s="7" t="n">
         <v>600302</v>
@@ -8029,7 +8084,7 @@
         <v>1.5</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="1"/>
@@ -8064,7 +8119,7 @@
         <v>5.65</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>71</v>
@@ -8073,10 +8128,10 @@
         <v>20</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M37" s="11"/>
       <c r="N37" s="1"/>
@@ -8089,7 +8144,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C38" s="7" t="n">
         <v>530806</v>
@@ -8107,7 +8162,7 @@
         <v>3.42</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="1"/>
@@ -8124,7 +8179,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C39" s="7" t="n">
         <v>440010</v>
@@ -8151,10 +8206,10 @@
         <v>20</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="M39" s="11"/>
       <c r="N39" s="1"/>
@@ -8167,7 +8222,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C40" s="7" t="n">
         <v>460044</v>
@@ -8185,7 +8240,7 @@
         <v>1.17</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="1"/>
@@ -8202,7 +8257,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C41" s="7" t="n">
         <v>470065</v>
@@ -8220,19 +8275,19 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M41" s="11"/>
       <c r="N41" s="1"/>
@@ -8263,7 +8318,7 @@
         <v>1.4900000000000002</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="1"/>
@@ -8280,7 +8335,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C43" s="7" t="n">
         <v>440023</v>
@@ -8298,7 +8353,7 @@
         <v>4.84</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>56</v>
@@ -8307,10 +8362,10 @@
         <v>20</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M43" s="11"/>
       <c r="N43" s="1"/>
